--- a/Docs/Lab02_BBT_TCs_Form.xlsx
+++ b/Docs/Lab02_BBT_TCs_Form.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5605D20-0DD1-459A-AE03-574FF3EE9504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4BF9EF-ACA1-44E6-93B0-3E11161B144F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="110">
   <si>
     <t>VVSS, Info Romana, 2023-2024</t>
   </si>
@@ -156,9 +156,6 @@
   </si>
   <si>
     <t>output data</t>
-  </si>
-  <si>
-    <t>expected</t>
   </si>
   <si>
     <t>…</t>
@@ -285,15 +282,6 @@
     </r>
   </si>
   <si>
-    <t>startDate is Date</t>
-  </si>
-  <si>
-    <t>startDate&lt;January 1, 1970, 00:00:00</t>
-  </si>
-  <si>
-    <t>startDate&gt;=January 1, 1970, 00:00:00</t>
-  </si>
-  <si>
     <t>intrerval&gt;=1</t>
   </si>
   <si>
@@ -309,9 +297,6 @@
     <t>No exception thrown</t>
   </si>
   <si>
-    <t>Task successfully created</t>
-  </si>
-  <si>
     <t>TC02_EC</t>
   </si>
   <si>
@@ -321,9 +306,6 @@
     <t>IllegalArgumentException</t>
   </si>
   <si>
-    <t>Start date is invalid</t>
-  </si>
-  <si>
     <t>TC03_EC</t>
   </si>
   <si>
@@ -336,39 +318,6 @@
     <t>startDate: January 1, 2022, 10:00; endDate: January 1, 2022, 11:00; interval: 0</t>
   </si>
   <si>
-    <t>Interval is invalid</t>
-  </si>
-  <si>
-    <t>interval value</t>
-  </si>
-  <si>
-    <t>1 (Minimum valid boundary)</t>
-  </si>
-  <si>
-    <t>60 (Maximum valid boundary)</t>
-  </si>
-  <si>
-    <t>0 (Minimum invalid boundary)</t>
-  </si>
-  <si>
-    <t>year of startDate</t>
-  </si>
-  <si>
-    <t>1970 (Valid boundary)</t>
-  </si>
-  <si>
-    <t>1969 (Invalid boundary)</t>
-  </si>
-  <si>
-    <t>minute of startDate</t>
-  </si>
-  <si>
-    <t>0 (Valid boundary for minute)</t>
-  </si>
-  <si>
-    <t>-1 (Invalid boundary for minute)</t>
-  </si>
-  <si>
     <t>TC01_BVA</t>
   </si>
   <si>
@@ -432,9 +381,6 @@
     <t>2022-01-01 10:00, 2022-01-01 11:00, 60</t>
   </si>
   <si>
-    <t>Pass: Task created successfully</t>
-  </si>
-  <si>
     <t>TC02</t>
   </si>
   <si>
@@ -444,9 +390,6 @@
     <t>1969-12-31 23:59, 2022-01-01 11:00, 60</t>
   </si>
   <si>
-    <t>Fail: IllegalArgumentException</t>
-  </si>
-  <si>
     <t>TC03</t>
   </si>
   <si>
@@ -499,13 +442,160 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF0FFEAB"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t>Task</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFE8BA36"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFFA763"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t xml:space="preserve">String </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFBA8EF7"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t>title</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFFA763"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t xml:space="preserve">Date </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFBA8EF7"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t>start</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFFA763"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t xml:space="preserve">Date </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFBA8EF7"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t>end</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color rgb="FFCED0D6"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFBA8EF7"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t>interval</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FFE8BA36"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF54A857"/>
+        <rFont val="Inter"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <t>expected result</t>
+  </si>
+  <si>
+    <t>actual result</t>
+  </si>
+  <si>
+    <t>year of startDate&gt;1969</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> interval&lt;=60</t>
+  </si>
+  <si>
+    <t>year of startDate&lt;2025</t>
+  </si>
+  <si>
+    <t>year of startDate&gt;=1970</t>
+  </si>
+  <si>
+    <t>year of startDate&lt;1970</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -637,6 +727,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFBA8EF7"/>
+      <name val="Inter"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10.5"/>
+      <color rgb="FFCED0D6"/>
+      <name val="Inter"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF0FFEAB"/>
+      <name val="Inter"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFE8BA36"/>
+      <name val="Inter"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFFFA763"/>
+      <name val="Inter"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Inter"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF54A857"/>
+      <name val="Inter"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -676,7 +802,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1011,11 +1137,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1069,6 +1206,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1096,9 +1239,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1117,68 +1293,47 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1212,7 +1367,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>800100</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1222,7 +1377,7 @@
                   <a14:compatExt spid="_x0000_s5122"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F96C96D4-5503-D238-BC50-6A20BBD417A3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1243,23 +1398,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1271,14 +1413,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EA212875-85E7-4283-91B5-95E72D7F0A33}" name="Table1" displayName="Table1" ref="G5:K9" totalsRowShown="0">
-  <autoFilter ref="G5:K9" xr:uid="{EA212875-85E7-4283-91B5-95E72D7F0A33}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EA212875-85E7-4283-91B5-95E72D7F0A33}" name="Table1" displayName="Table1" ref="G5:J9" totalsRowShown="0">
+  <autoFilter ref="G5:J9" xr:uid="{EA212875-85E7-4283-91B5-95E72D7F0A33}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{0CF7B068-786A-465B-B807-4EC9038A3CDE}" name="No. TCxx_EC"/>
     <tableColumn id="2" xr3:uid="{2C531D39-E88E-477E-A9DF-619DC9803C3B}" name="EC"/>
     <tableColumn id="3" xr3:uid="{ECB6621E-336F-4C9F-B607-61D1F5C99CE3}" name="input data"/>
     <tableColumn id="4" xr3:uid="{EE4A2E9D-64DA-41D2-87D3-7377E01836B0}" name="output data"/>
-    <tableColumn id="5" xr3:uid="{46B8707E-5BF0-4261-87ED-03D0F12A2B56}" name="expected"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1589,6 +1730,9 @@
   <we:bindings/>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
   <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
+      <we:containsCustomFunctions/>
+    </a:ext>
     <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
       <we:customFunctionIdList>
         <we:customFunctionIds>_xldudf_GPT</we:customFunctionIds>
@@ -1622,41 +1766,41 @@
   </sheetPr>
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" customWidth="1"/>
-    <col min="9" max="9" width="32.85546875" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.1328125" customWidth="1"/>
+    <col min="4" max="4" width="22.59765625" customWidth="1"/>
+    <col min="9" max="9" width="32.86328125" customWidth="1"/>
+    <col min="10" max="10" width="10.59765625" customWidth="1"/>
+    <col min="12" max="12" width="12.1328125" customWidth="1"/>
     <col min="14" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C1" s="25" t="s">
+    <row r="1" spans="2:10">
+      <c r="C1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="27"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="29"/>
       <c r="H1" s="23" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="23"/>
       <c r="J1" s="23"/>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H2" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10">
+      <c r="H2" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+    </row>
+    <row r="3" spans="2:10">
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
         <v>2</v>
@@ -1665,29 +1809,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10">
       <c r="H4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J4" s="2">
         <v>234</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10">
       <c r="H5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J5" s="2">
         <v>234</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10">
       <c r="B6" s="10"/>
       <c r="H6" s="2" t="s">
         <v>6</v>
@@ -1695,59 +1839,64 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="2:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" ht="14.45" customHeight="1"/>
+    <row r="8" spans="2:10">
       <c r="B8" s="21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10">
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10">
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10">
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="B17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="B18" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
+      <c r="B21" s="61" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="14.45" customHeight="1">
       <c r="A24" s="20"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="C26" s="22"/>
     </row>
   </sheetData>
@@ -1794,55 +1943,55 @@
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B1:K22"/>
+  <dimension ref="B1:J22"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.140625" customWidth="1"/>
-    <col min="5" max="5" width="48.140625" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="73.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.3984375" customWidth="1"/>
+    <col min="4" max="4" width="42.1328125" customWidth="1"/>
+    <col min="5" max="5" width="48.1328125" customWidth="1"/>
+    <col min="6" max="6" width="5.86328125" customWidth="1"/>
+    <col min="7" max="7" width="14.1328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="73.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.3984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.3984375" customWidth="1"/>
     <col min="17" max="17" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="25" t="s">
+    <row r="1" spans="2:10">
+      <c r="B1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="33"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="53" t="s">
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="35"/>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="55"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="38"/>
       <c r="G5" t="s">
         <v>17</v>
       </c>
@@ -1855,11 +2004,8 @@
       <c r="J5" t="s">
         <v>20</v>
       </c>
-      <c r="K5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:10">
       <c r="B6" s="7" t="s">
         <v>13</v>
       </c>
@@ -1873,171 +2019,159 @@
         <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
       <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="29" t="s">
-        <v>49</v>
+      <c r="C7" s="31" t="s">
+        <v>108</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="E7" s="4"/>
       <c r="G7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H7">
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="J7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
       <c r="B8" s="4">
         <v>2</v>
       </c>
-      <c r="C8" s="30"/>
+      <c r="C8" s="32"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="G8" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H8">
         <v>3</v>
       </c>
       <c r="I8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="J8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
       <c r="B9" s="4">
         <v>3</v>
       </c>
-      <c r="C9" s="29" t="s">
-        <v>52</v>
+      <c r="C9" s="31" t="s">
+        <v>48</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E9" s="4"/>
       <c r="G9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H9">
         <v>4</v>
       </c>
       <c r="I9" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J9" t="s">
-        <v>60</v>
-      </c>
-      <c r="K9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
       <c r="B10" s="4">
         <v>4</v>
       </c>
-      <c r="C10" s="30"/>
+      <c r="C10" s="32"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G10" s="24"/>
     </row>
-    <row r="11" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" ht="15" customHeight="1">
       <c r="B11" s="4">
         <v>5</v>
       </c>
-      <c r="C11" s="29" t="s">
-        <v>22</v>
+      <c r="C11" s="31" t="s">
+        <v>21</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10">
       <c r="B12" s="4">
         <v>6</v>
       </c>
-      <c r="C12" s="30"/>
+      <c r="C12" s="32"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10">
       <c r="B13" s="4">
         <v>7</v>
       </c>
-      <c r="C13" s="29" t="s">
-        <v>22</v>
+      <c r="C13" s="31" t="s">
+        <v>21</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10">
       <c r="B14" s="4">
         <v>8</v>
       </c>
-      <c r="C14" s="30"/>
+      <c r="C14" s="32"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10">
       <c r="B15" s="4">
         <v>9</v>
       </c>
-      <c r="C15" s="29" t="s">
-        <v>22</v>
+      <c r="C15" s="31" t="s">
+        <v>21</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10">
       <c r="B16" s="4">
         <v>10</v>
       </c>
-      <c r="C16" s="30"/>
+      <c r="C16" s="32"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:6">
       <c r="D18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6">
       <c r="F22" s="24"/>
     </row>
   </sheetData>
@@ -2064,300 +2198,326 @@
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B1:N13"/>
+  <dimension ref="B1:N16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="30.1328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="5.59765625" customWidth="1"/>
+    <col min="7" max="7" width="9.3984375" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" customWidth="1"/>
-    <col min="12" max="12" width="42.85546875" customWidth="1"/>
-    <col min="13" max="13" width="24.140625" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.28515625" customWidth="1"/>
-    <col min="18" max="18" width="9.42578125" customWidth="1"/>
+    <col min="10" max="10" width="10.1328125" customWidth="1"/>
+    <col min="11" max="11" width="9.59765625" customWidth="1"/>
+    <col min="12" max="12" width="42.86328125" customWidth="1"/>
+    <col min="13" max="13" width="24.1328125" customWidth="1"/>
+    <col min="14" max="14" width="12.86328125" customWidth="1"/>
+    <col min="15" max="15" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.1328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.265625" customWidth="1"/>
+    <col min="18" max="18" width="9.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="25" t="s">
+    <row r="1" spans="2:14">
+      <c r="B1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="33"/>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="34" t="s">
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
+    </row>
+    <row r="3" spans="2:14">
+      <c r="B3" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="35"/>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="2:14" ht="14.45" customHeight="1">
+      <c r="B6" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="2:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" s="6"/>
-      <c r="H6" s="58" t="s">
+      <c r="H6" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="58" t="s">
+      <c r="J6" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="58" t="s">
+      <c r="K6" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="58" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" s="58" t="s">
+      <c r="L6" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="58" t="s">
+      <c r="M6" s="26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="56">
+    <row r="7" spans="2:14" ht="15" customHeight="1">
+      <c r="B7" s="25">
         <v>1</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="67">
+        <v>1</v>
+      </c>
+      <c r="G7" s="24"/>
+      <c r="H7" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="25">
+        <v>1</v>
+      </c>
+      <c r="J7" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="K7" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="L7" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="M7" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" s="16"/>
+    </row>
+    <row r="8" spans="2:14" ht="28.5">
+      <c r="B8" s="25">
+        <v>2</v>
+      </c>
+      <c r="C8" s="63"/>
+      <c r="D8" s="67">
+        <v>2</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="25">
+        <v>2</v>
+      </c>
+      <c r="J8" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="K8" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="L8" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="M8" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="N8" s="17"/>
+    </row>
+    <row r="9" spans="2:14" ht="28.5">
+      <c r="B9" s="25">
+        <v>3</v>
+      </c>
+      <c r="C9" s="64"/>
+      <c r="D9" s="67">
+        <v>0</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="25">
+        <v>3</v>
+      </c>
+      <c r="J9" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="K9" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="L9" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="57" t="s">
-        <v>77</v>
-      </c>
-      <c r="I7" s="57">
-        <v>1</v>
-      </c>
-      <c r="J7" s="57" t="s">
-        <v>78</v>
-      </c>
-      <c r="K7" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="L7" s="57" t="s">
-        <v>80</v>
-      </c>
-      <c r="M7" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="N7" s="16"/>
-    </row>
-    <row r="8" spans="2:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="B8" s="57">
-        <v>2</v>
-      </c>
-      <c r="C8" s="57" t="s">
+      <c r="M9" s="25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="28.5">
+      <c r="B10" s="2">
+        <v>4</v>
+      </c>
+      <c r="C10" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="66">
+        <v>59</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="25">
+        <v>4</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="L10" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="M10" s="25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="28.5">
+      <c r="B11" s="2">
+        <v>5</v>
+      </c>
+      <c r="C11" s="63"/>
+      <c r="D11" s="66">
+        <v>60</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" s="25">
+        <v>5</v>
+      </c>
+      <c r="J11" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="H8" s="57" t="s">
-        <v>81</v>
-      </c>
-      <c r="I8" s="57">
-        <v>2</v>
-      </c>
-      <c r="J8" s="57" t="s">
-        <v>78</v>
-      </c>
-      <c r="K8" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="L8" s="57" t="s">
-        <v>82</v>
-      </c>
-      <c r="M8" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="N8" s="17"/>
-    </row>
-    <row r="9" spans="2:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="B9" s="57">
-        <v>3</v>
-      </c>
-      <c r="C9" s="57" t="s">
+      <c r="L11" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="M11" s="25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="28.5">
+      <c r="B12" s="2">
+        <v>6</v>
+      </c>
+      <c r="C12" s="64"/>
+      <c r="D12" s="66">
+        <v>61</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12" s="25">
+        <v>6</v>
+      </c>
+      <c r="J12" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="K12" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="L12" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="M12" s="25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="28.5">
+      <c r="B13" s="25">
+        <v>7</v>
+      </c>
+      <c r="C13" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="67">
+        <v>1970</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13" s="25">
+        <v>7</v>
+      </c>
+      <c r="J13" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="K13" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="I9" s="57">
-        <v>3</v>
-      </c>
-      <c r="J9" s="57" t="s">
-        <v>78</v>
-      </c>
-      <c r="K9" s="57" t="s">
-        <v>84</v>
-      </c>
-      <c r="L9" s="57" t="s">
-        <v>85</v>
-      </c>
-      <c r="M9" s="57" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="B10" s="57">
-        <v>4</v>
-      </c>
-      <c r="C10" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="57" t="s">
-        <v>72</v>
-      </c>
-      <c r="H10" s="57" t="s">
-        <v>86</v>
-      </c>
-      <c r="I10" s="57">
-        <v>4</v>
-      </c>
-      <c r="J10" s="57" t="s">
-        <v>78</v>
-      </c>
-      <c r="K10" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="L10" s="57" t="s">
-        <v>87</v>
-      </c>
-      <c r="M10" s="57" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="B11" s="57">
-        <v>5</v>
-      </c>
-      <c r="C11" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="H11" s="57" t="s">
-        <v>88</v>
-      </c>
-      <c r="I11" s="57">
-        <v>5</v>
-      </c>
-      <c r="J11" s="57" t="s">
-        <v>78</v>
-      </c>
-      <c r="K11" s="57" t="s">
-        <v>84</v>
-      </c>
-      <c r="L11" s="57" t="s">
-        <v>89</v>
-      </c>
-      <c r="M11" s="57" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="B12" s="57">
-        <v>6</v>
-      </c>
-      <c r="C12" s="57" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="57" t="s">
+      <c r="L13" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="H12" s="57" t="s">
-        <v>90</v>
-      </c>
-      <c r="I12" s="57">
-        <v>6</v>
-      </c>
-      <c r="J12" s="57" t="s">
-        <v>78</v>
-      </c>
-      <c r="K12" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="L12" s="57" t="s">
-        <v>82</v>
-      </c>
-      <c r="M12" s="57" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="B13" s="57">
+      <c r="M13" s="25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="28.5" customHeight="1">
+      <c r="B14" s="25">
+        <v>8</v>
+      </c>
+      <c r="C14" s="64"/>
+      <c r="D14" s="67">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="28.5" customHeight="1">
+      <c r="B15" s="25">
+        <v>9</v>
+      </c>
+      <c r="C15" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="67">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="B16" s="25">
         <v>7</v>
       </c>
-      <c r="C13" s="57" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="H13" s="57" t="s">
-        <v>91</v>
-      </c>
-      <c r="I13" s="57">
-        <v>7</v>
-      </c>
-      <c r="J13" s="57" t="s">
-        <v>78</v>
-      </c>
-      <c r="K13" s="57" t="s">
-        <v>84</v>
-      </c>
-      <c r="L13" s="57" t="s">
-        <v>92</v>
-      </c>
-      <c r="M13" s="57" t="s">
-        <v>60</v>
+      <c r="C16" s="64"/>
+      <c r="D16" s="67">
+        <v>2024</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="7">
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B5:D5"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C12"/>
   </mergeCells>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2370,199 +2530,226 @@
   </sheetPr>
   <dimension ref="B1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="9.85546875" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.86328125" customWidth="1"/>
+    <col min="3" max="3" width="7.3984375" customWidth="1"/>
+    <col min="4" max="4" width="10.86328125" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="42.7109375" customWidth="1"/>
-    <col min="7" max="7" width="37" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" customWidth="1"/>
-    <col min="13" max="13" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="42.73046875" customWidth="1"/>
+    <col min="7" max="7" width="33.73046875" customWidth="1"/>
+    <col min="8" max="8" width="81.53125" customWidth="1"/>
+    <col min="9" max="9" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.86328125" customWidth="1"/>
+    <col min="13" max="13" width="30.265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="25" t="s">
+    <row r="1" spans="2:14">
+      <c r="B1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27"/>
-    </row>
-    <row r="3" spans="2:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="B3" s="58" t="s">
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
+    </row>
+    <row r="3" spans="2:14" ht="28.5">
+      <c r="B3" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" s="65" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14">
+      <c r="B4" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="B8" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="58" t="s">
+      <c r="C9" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="58" t="s">
+      <c r="D9" s="25"/>
+      <c r="E9" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="G3" s="58" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="B4" s="57" t="s">
+      <c r="F9" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="57" t="s">
+      <c r="C10" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57" t="s">
+      <c r="F10" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="G4" s="57" t="s">
+      <c r="G10" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="B11" s="25" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="5" spans="2:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="B5" s="57" t="s">
+      <c r="C11" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="57" t="s">
+      <c r="F11" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57" t="s">
-        <v>101</v>
-      </c>
-      <c r="G5" s="57" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="B6" s="57" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="57" t="s">
-        <v>104</v>
-      </c>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57" t="s">
-        <v>105</v>
-      </c>
-      <c r="G6" s="57" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="B7" s="57" t="s">
-        <v>106</v>
-      </c>
-      <c r="C7" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57" t="s">
-        <v>108</v>
-      </c>
-      <c r="G7" s="57" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="B8" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="C8" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57" t="s">
-        <v>110</v>
-      </c>
-      <c r="F8" s="57" t="s">
-        <v>111</v>
-      </c>
-      <c r="G8" s="57" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="B9" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="C9" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57" t="s">
-        <v>113</v>
-      </c>
-      <c r="F9" s="57" t="s">
-        <v>97</v>
-      </c>
-      <c r="G9" s="57" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="B10" s="57" t="s">
-        <v>114</v>
-      </c>
-      <c r="C10" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57" t="s">
-        <v>115</v>
-      </c>
-      <c r="F10" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="G10" s="57" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="B11" s="57" t="s">
-        <v>117</v>
-      </c>
-      <c r="C11" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57" t="s">
-        <v>118</v>
-      </c>
-      <c r="F11" s="57" t="s">
-        <v>119</v>
-      </c>
-      <c r="G11" s="57" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G11" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14">
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="9"/>
@@ -2577,9 +2764,9 @@
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
     </row>
-    <row r="15" spans="2:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" ht="14.45" customHeight="1">
       <c r="B15" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
@@ -2589,102 +2776,102 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
       <c r="M15" s="5"/>
     </row>
-    <row r="16" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" ht="14.65" thickBot="1">
       <c r="M16" s="5"/>
     </row>
-    <row r="17" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="59" t="s">
+    <row r="17" spans="2:16" ht="14.65" thickTop="1">
+      <c r="C17" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="12" t="s">
+      <c r="H17" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="H17" s="37" t="s">
+      <c r="I17" s="51"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="I17" s="38"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="59" t="s">
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="42"/>
+    </row>
+    <row r="18" spans="2:16" ht="14.45" customHeight="1">
+      <c r="B18" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="N17" s="60"/>
-      <c r="O17" s="60"/>
-      <c r="P17" s="61"/>
-    </row>
-    <row r="18" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="52" t="s">
+      <c r="D18" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="E18" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="35" t="s">
+      <c r="F18" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="36" t="s">
+      <c r="G18" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="G18" s="47" t="s">
+      <c r="H18" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="H18" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="I18" s="44"/>
-      <c r="J18" s="35" t="s">
+      <c r="I18" s="55"/>
+      <c r="J18" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="K18" s="35" t="s">
+      <c r="L18" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="L18" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="M18" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="N18" s="35" t="s">
+      <c r="M18" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="N18" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="O18" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="O18" s="35" t="s">
+      <c r="P18" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="P18" s="36" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="51"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="36"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:16">
+      <c r="B19" s="46"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="49"/>
+    </row>
+    <row r="20" spans="2:16">
       <c r="B20" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="11">
         <v>8</v>
@@ -2701,10 +2888,10 @@
       <c r="G20" s="19">
         <v>3</v>
       </c>
-      <c r="H20" s="49">
+      <c r="H20" s="44">
         <v>3</v>
       </c>
-      <c r="I20" s="50"/>
+      <c r="I20" s="45"/>
       <c r="J20" s="2">
         <v>3</v>
       </c>
@@ -2715,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="18" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="N20" s="2">
         <v>5</v>
@@ -2727,11 +2914,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16">
       <c r="M21" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
     <mergeCell ref="M17:P17"/>
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="B1:E1"/>
@@ -2748,10 +2939,6 @@
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="K18:K19"/>
     <mergeCell ref="L18:L19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2760,9 +2947,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2910,19 +3100,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B0A340A-7B8D-463A-B976-63A023B5D9BB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C125791C-CFF3-4EED-94B5-3CF568D8D264}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2946,9 +3132,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C125791C-CFF3-4EED-94B5-3CF568D8D264}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B0A340A-7B8D-463A-B976-63A023B5D9BB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>